--- a/プロジェクト型演習_成果物(詳細画面).xlsx
+++ b/プロジェクト型演習_成果物(詳細画面).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user43\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A08B57E-2C3E-4018-A40B-EAA376152882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DFF5B9-B25F-4260-BDAB-3564424EBE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計書" sheetId="1" r:id="rId1"/>
@@ -1938,94 +1938,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2037,80 +2034,119 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2151,24 +2187,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2190,26 +2211,98 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2229,24 +2322,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2256,85 +2331,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2856,7 +2856,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
-            <a:t>+setMemo(memo):void</a:t>
+            <a:t>+setMemo(memo : String):void</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
         </a:p>
@@ -3870,14 +3870,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE3C090-186F-4CA2-AD66-6967D9C59DC5}">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B30" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J50" sqref="J50:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="34"/>
@@ -3893,333 +3893,333 @@
       <c r="E2" s="34"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89" t="s">
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="92" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="84"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="89" t="s">
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="90"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="34"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="83" t="s">
+      <c r="K7" s="41"/>
+      <c r="L7" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="85"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="39"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="90"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="34"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="90"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
       <c r="O8" s="34"/>
       <c r="P8" s="34"/>
       <c r="Q8" s="34"/>
       <c r="R8" s="34"/>
-      <c r="S8" s="91"/>
+      <c r="S8" s="41"/>
     </row>
     <row r="9" spans="1:19" ht="18.75" customHeight="1">
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="90"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="34"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="90"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="40"/>
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
       <c r="O9" s="34"/>
       <c r="P9" s="34"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="34"/>
-      <c r="S9" s="91"/>
+      <c r="S9" s="41"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="90"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="34"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="90"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="40"/>
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="34"/>
       <c r="P10" s="34"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
-      <c r="S10" s="91"/>
+      <c r="S10" s="41"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="90"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="34"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="90"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="40"/>
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
       <c r="O11" s="34"/>
       <c r="P11" s="34"/>
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
-      <c r="S11" s="91"/>
+      <c r="S11" s="41"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="88"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="44"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89" t="s">
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89" t="s">
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89" t="s">
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89" t="s">
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
     </row>
     <row r="17" spans="3:24">
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="92" t="s">
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="92" t="s">
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="84"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="83" t="s">
+      <c r="J17" s="38"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="85"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="39"/>
     </row>
     <row r="18" spans="3:24">
-      <c r="C18" s="90"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="88"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="44"/>
     </row>
     <row r="19" spans="3:24">
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="89" t="s">
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89" t="s">
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89" t="s">
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
     </row>
     <row r="20" spans="3:24">
       <c r="I20" s="34"/>
@@ -4232,19 +4232,19 @@
       <c r="K21" s="34"/>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="59" t="s">
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="59" t="s">
+      <c r="G22" s="91"/>
+      <c r="H22" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="60"/>
+      <c r="I22" s="91"/>
       <c r="J22" s="25" t="s">
         <v>22</v>
       </c>
@@ -4256,122 +4256,122 @@
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="37" t="s">
+      <c r="C23" s="88"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="37" t="s">
+      <c r="G23" s="61"/>
+      <c r="H23" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="38"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="52"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="83"/>
     </row>
     <row r="24" spans="3:24">
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="53"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="84"/>
     </row>
     <row r="25" spans="3:24" ht="19.5" thickBot="1">
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="53"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="84"/>
     </row>
     <row r="26" spans="3:24">
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="65" t="s">
+      <c r="D26" s="65"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="67"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="66"/>
     </row>
     <row r="27" spans="3:24">
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="68"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
     </row>
     <row r="28" spans="3:24">
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="43"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="74"/>
     </row>
     <row r="29" spans="3:24">
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="77"/>
     </row>
     <row r="30" spans="3:24">
-      <c r="C30" s="44"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="46"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
     </row>
     <row r="31" spans="3:24">
-      <c r="C31" s="44"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="46"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
       <c r="N31" s="34"/>
       <c r="O31" s="34"/>
       <c r="P31" s="34"/>
@@ -4384,16 +4384,16 @@
       <c r="X31" s="34"/>
     </row>
     <row r="32" spans="3:24">
-      <c r="C32" s="44"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="46"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="77"/>
       <c r="N32" s="34"/>
       <c r="O32" s="34"/>
       <c r="P32" s="34"/>
@@ -4401,33 +4401,33 @@
       <c r="R32" s="34"/>
     </row>
     <row r="33" spans="3:24">
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="46"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="77"/>
       <c r="N33" s="34"/>
       <c r="O33" s="34"/>
-      <c r="P33" s="36"/>
+      <c r="P33" s="92"/>
       <c r="Q33" s="34"/>
       <c r="R33" s="34"/>
     </row>
     <row r="34" spans="3:24">
-      <c r="C34" s="44"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="46"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77"/>
       <c r="N34" s="34"/>
       <c r="O34" s="34"/>
       <c r="P34" s="34"/>
@@ -4435,16 +4435,16 @@
       <c r="R34" s="34"/>
     </row>
     <row r="35" spans="3:24">
-      <c r="C35" s="44"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="46"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="77"/>
       <c r="N35" s="34"/>
       <c r="O35" s="34"/>
       <c r="P35" s="34"/>
@@ -4457,138 +4457,138 @@
       <c r="X35" s="34"/>
     </row>
     <row r="36" spans="3:24">
-      <c r="C36" s="44"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="46"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="77"/>
       <c r="N36" s="34"/>
       <c r="O36" s="34"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
     </row>
     <row r="37" spans="3:24">
-      <c r="C37" s="44"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="46"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="77"/>
       <c r="N37" s="34"/>
       <c r="O37" s="34"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
     </row>
     <row r="38" spans="3:24">
-      <c r="C38" s="44"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="46"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="77"/>
     </row>
     <row r="39" spans="3:24">
-      <c r="C39" s="44"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="46"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="77"/>
     </row>
     <row r="40" spans="3:24">
-      <c r="C40" s="44"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="46"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="77"/>
     </row>
     <row r="41" spans="3:24">
-      <c r="C41" s="44"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="46"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="77"/>
     </row>
     <row r="42" spans="3:24">
-      <c r="C42" s="44"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="46"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="77"/>
     </row>
     <row r="43" spans="3:24">
-      <c r="C43" s="47"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="49"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="80"/>
     </row>
     <row r="44" spans="3:24">
-      <c r="C44" s="61" t="s">
+      <c r="C44" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="68"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="54"/>
     </row>
     <row r="45" spans="3:24">
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="62"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="69" t="s">
+      <c r="D45" s="53"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="63"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="57"/>
       <c r="K45" s="4" t="s">
         <v>29</v>
       </c>
@@ -4597,11 +4597,11 @@
       </c>
     </row>
     <row r="46" spans="3:24">
-      <c r="C46" s="61" t="s">
+      <c r="C46" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="62"/>
-      <c r="E46" s="63"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="57"/>
       <c r="F46" s="4" t="s">
         <v>31</v>
       </c>
@@ -4614,18 +4614,18 @@
       <c r="I46" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J46" s="70" t="s">
+      <c r="J46" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="62"/>
-      <c r="L46" s="68"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="54"/>
     </row>
     <row r="47" spans="3:24">
-      <c r="C47" s="64" t="s">
+      <c r="C47" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="63"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="57"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
         <v>73</v>
@@ -4636,14 +4636,14 @@
       <c r="I47" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J47" s="69"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="68"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="54"/>
     </row>
     <row r="48" spans="3:24">
-      <c r="C48" s="64"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="63"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="57"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="6"/>
@@ -4653,18 +4653,18 @@
       <c r="L48" s="28"/>
     </row>
     <row r="49" spans="3:12">
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="62"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="69" t="s">
+      <c r="D49" s="53"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="63"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="57"/>
       <c r="K49" s="4" t="s">
         <v>29</v>
       </c>
@@ -4673,11 +4673,11 @@
       </c>
     </row>
     <row r="50" spans="3:12">
-      <c r="C50" s="61" t="s">
+      <c r="C50" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="62"/>
-      <c r="E50" s="63"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="57"/>
       <c r="F50" s="4" t="s">
         <v>31</v>
       </c>
@@ -4690,18 +4690,18 @@
       <c r="I50" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J50" s="70" t="s">
+      <c r="J50" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K50" s="62"/>
-      <c r="L50" s="68"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="54"/>
     </row>
     <row r="51" spans="3:12">
-      <c r="C51" s="79" t="s">
+      <c r="C51" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="80"/>
-      <c r="E51" s="38"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="61"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13" t="s">
         <v>73</v>
@@ -4717,21 +4717,21 @@
       <c r="L51" s="30"/>
     </row>
     <row r="52" spans="3:12">
-      <c r="C52" s="81"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="82"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="48"/>
       <c r="F52" s="24"/>
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="78"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="55"/>
     </row>
     <row r="53" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C53" s="73"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="75"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="51"/>
       <c r="F53" s="31"/>
       <c r="G53" s="31"/>
       <c r="H53" s="32"/>
@@ -4742,54 +4742,15 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K12"/>
-    <mergeCell ref="C17:E19"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="C6:E14"/>
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="L7:S12"/>
-    <mergeCell ref="L17:S18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="F6:H14"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P36:R37"/>
+    <mergeCell ref="N36:O37"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P32:R32"/>
     <mergeCell ref="F23:G25"/>
     <mergeCell ref="H23:I25"/>
     <mergeCell ref="C28:L43"/>
@@ -4804,15 +4765,54 @@
     <mergeCell ref="C22:E25"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P36:R37"/>
-    <mergeCell ref="N36:O37"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="L17:S18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="F6:H14"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="L7:S12"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K12"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="C6:E14"/>
+    <mergeCell ref="C15:E16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4824,8 +4824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4538CB-88B1-4F00-BE8F-59AF7E88C672}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4835,19 +4835,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="99" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="99" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="72"/>
+      <c r="G1" s="68"/>
       <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
@@ -4859,200 +4859,189 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="115"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="37" t="s">
+      <c r="A2" s="122"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="103"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="115"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="104"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="116"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="105"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="117"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="122" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="123"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="100"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="69" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="124"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="101"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="69" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="124"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="101"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="69" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="124"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="101"/>
     </row>
     <row r="9" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A9" s="119" t="s">
+      <c r="A9" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="125" t="s">
+      <c r="C9" s="98"/>
+      <c r="D9" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="111"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="104"/>
     </row>
     <row r="10" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A10" s="120"/>
-      <c r="B10" s="106" t="s">
+      <c r="A10" s="95"/>
+      <c r="B10" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="69" t="s">
+      <c r="C10" s="98"/>
+      <c r="D10" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="111"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="104"/>
     </row>
     <row r="11" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A11" s="121"/>
-      <c r="B11" s="106" t="s">
+      <c r="A11" s="96"/>
+      <c r="B11" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="125" t="s">
+      <c r="C11" s="98"/>
+      <c r="D11" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="104"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="69" t="s">
+      <c r="B12" s="118"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="111"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="104"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="98"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D1:E1"/>
@@ -5069,6 +5058,17 @@
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5079,26 +5079,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DE094B-4402-4F9F-9A1C-347161DFFA90}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="145" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="99" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="72"/>
+      <c r="G1" s="68"/>
       <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
@@ -5110,44 +5110,44 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="146" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="155" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50" t="s">
+      <c r="E2" s="61"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="103"/>
+      <c r="J2" s="115"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="104"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="116"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="143"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="105"/>
+      <c r="A4" s="152"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="117"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" thickBot="1">
       <c r="C5" s="11"/>
@@ -5160,60 +5160,60 @@
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="155"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="143"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="153"/>
-      <c r="C7" s="156" t="s">
+      <c r="B7" s="142"/>
+      <c r="C7" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="156" t="s">
+      <c r="D7" s="142"/>
+      <c r="E7" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="157"/>
+      <c r="F7" s="145"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="149"/>
-      <c r="C8" s="148" t="s">
+      <c r="B8" s="138"/>
+      <c r="C8" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="149"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="159"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="147"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A9" s="150"/>
-      <c r="B9" s="151"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="161"/>
+      <c r="A9" s="139"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="149"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -5244,89 +5244,89 @@
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="163" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="140"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="165"/>
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="126" t="s">
+      <c r="B13" s="158"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="127"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="126" t="s">
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="159"/>
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="162" t="s">
+      <c r="A14" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="129" t="s">
+      <c r="B14" s="161"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="130"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="129" t="s">
+      <c r="E14" s="161"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="162"/>
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="164" t="s">
+      <c r="A15" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="133"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="132" t="s">
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="133"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="134"/>
-      <c r="G15" s="132" t="s">
+      <c r="G15" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="133"/>
+      <c r="H15" s="128"/>
       <c r="I15" s="134"/>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" thickBot="1">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="136"/>
-      <c r="C16" s="167"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="132"/>
       <c r="D16" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="136"/>
-      <c r="F16" s="137"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="136"/>
       <c r="G16" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="136"/>
-      <c r="I16" s="137"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="136"/>
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10">
@@ -5357,12 +5357,12 @@
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="154" t="s">
+      <c r="D19" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="19"/>
@@ -5537,26 +5537,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
@@ -5566,6 +5546,26 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/プロジェクト型演習_成果物(詳細画面).xlsx
+++ b/プロジェクト型演習_成果物(詳細画面).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DFF5B9-B25F-4260-BDAB-3564424EBE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE66127F-4543-4071-8141-49ADD934EE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計書" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
   <si>
     <t>プロジェクト演習
 タスク編集機能</t>
@@ -76,10 +76,6 @@
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>task-edit.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1938,183 +1934,258 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2124,12 +2195,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2142,199 +2207,130 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3877,7 +3873,7 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="34"/>
@@ -3893,333 +3889,333 @@
       <c r="E2" s="34"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35" t="s">
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35" t="s">
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35" t="s">
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="C6" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="37" t="s">
+      <c r="C6" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="84"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="40"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="90"/>
       <c r="J7" s="34"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="39"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="85"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="40"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="90"/>
       <c r="J8" s="34"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="40"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="90"/>
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
       <c r="O8" s="34"/>
       <c r="P8" s="34"/>
       <c r="Q8" s="34"/>
       <c r="R8" s="34"/>
-      <c r="S8" s="41"/>
+      <c r="S8" s="91"/>
     </row>
     <row r="9" spans="1:19" ht="18.75" customHeight="1">
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="40"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
       <c r="J9" s="34"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="40"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="90"/>
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
       <c r="O9" s="34"/>
       <c r="P9" s="34"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="34"/>
-      <c r="S9" s="41"/>
+      <c r="S9" s="91"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="40"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="34"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="40"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="90"/>
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="34"/>
       <c r="P10" s="34"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
-      <c r="S10" s="41"/>
+      <c r="S10" s="91"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="40"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="90"/>
       <c r="J11" s="34"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="40"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="90"/>
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
       <c r="O11" s="34"/>
       <c r="P11" s="34"/>
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
-      <c r="S11" s="41"/>
+      <c r="S11" s="91"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="44"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="88"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+    </row>
+    <row r="17" spans="3:24">
+      <c r="C17" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="84"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="85"/>
+    </row>
+    <row r="18" spans="3:24">
+      <c r="C18" s="90"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="88"/>
+    </row>
+    <row r="19" spans="3:24">
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35" t="s">
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-    </row>
-    <row r="17" spans="3:24">
-      <c r="C17" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="37" t="s">
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="39"/>
-    </row>
-    <row r="18" spans="3:24">
-      <c r="C18" s="40"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="44"/>
-    </row>
-    <row r="19" spans="3:24">
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
     </row>
     <row r="20" spans="3:24">
       <c r="I20" s="34"/>
@@ -4232,146 +4228,146 @@
       <c r="K21" s="34"/>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="90" t="s">
+      <c r="G22" s="60"/>
+      <c r="H22" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="91"/>
-      <c r="H22" s="90" t="s">
+      <c r="I22" s="60"/>
+      <c r="J22" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="91"/>
-      <c r="J22" s="25" t="s">
+      <c r="K22" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="L22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="27" t="s">
+    </row>
+    <row r="23" spans="3:24">
+      <c r="C23" s="57"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="38"/>
+      <c r="H23" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="38"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="52"/>
+    </row>
+    <row r="24" spans="3:24">
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="53"/>
+    </row>
+    <row r="25" spans="3:24" ht="19.5" thickBot="1">
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="53"/>
+    </row>
+    <row r="26" spans="3:24">
+      <c r="C26" s="71" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="3:24">
-      <c r="C23" s="88"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="61"/>
-      <c r="H23" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="61"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="83"/>
-    </row>
-    <row r="24" spans="3:24">
-      <c r="C24" s="88"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="84"/>
-    </row>
-    <row r="25" spans="3:24" ht="19.5" thickBot="1">
-      <c r="C25" s="88"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="84"/>
-    </row>
-    <row r="26" spans="3:24">
-      <c r="C26" s="67" t="s">
+      <c r="D26" s="66"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="67"/>
+    </row>
+    <row r="27" spans="3:24">
+      <c r="C27" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66"/>
-    </row>
-    <row r="27" spans="3:24">
-      <c r="C27" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="54"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="68"/>
     </row>
     <row r="28" spans="3:24">
-      <c r="C28" s="72"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="74"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="43"/>
     </row>
     <row r="29" spans="3:24">
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="77"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="46"/>
     </row>
     <row r="30" spans="3:24">
-      <c r="C30" s="75"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="77"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="46"/>
     </row>
     <row r="31" spans="3:24">
-      <c r="C31" s="75"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="46"/>
       <c r="N31" s="34"/>
       <c r="O31" s="34"/>
       <c r="P31" s="34"/>
@@ -4384,16 +4380,16 @@
       <c r="X31" s="34"/>
     </row>
     <row r="32" spans="3:24">
-      <c r="C32" s="75"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="77"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="46"/>
       <c r="N32" s="34"/>
       <c r="O32" s="34"/>
       <c r="P32" s="34"/>
@@ -4401,33 +4397,33 @@
       <c r="R32" s="34"/>
     </row>
     <row r="33" spans="3:24">
-      <c r="C33" s="75"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="77"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="46"/>
       <c r="N33" s="34"/>
       <c r="O33" s="34"/>
-      <c r="P33" s="92"/>
+      <c r="P33" s="36"/>
       <c r="Q33" s="34"/>
       <c r="R33" s="34"/>
     </row>
     <row r="34" spans="3:24">
-      <c r="C34" s="75"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="77"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="46"/>
       <c r="N34" s="34"/>
       <c r="O34" s="34"/>
       <c r="P34" s="34"/>
@@ -4435,16 +4431,16 @@
       <c r="R34" s="34"/>
     </row>
     <row r="35" spans="3:24">
-      <c r="C35" s="75"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="77"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="46"/>
       <c r="N35" s="34"/>
       <c r="O35" s="34"/>
       <c r="P35" s="34"/>
@@ -4457,193 +4453,193 @@
       <c r="X35" s="34"/>
     </row>
     <row r="36" spans="3:24">
-      <c r="C36" s="75"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="77"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="46"/>
       <c r="N36" s="34"/>
       <c r="O36" s="34"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
     </row>
     <row r="37" spans="3:24">
-      <c r="C37" s="75"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="77"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="46"/>
       <c r="N37" s="34"/>
       <c r="O37" s="34"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
     </row>
     <row r="38" spans="3:24">
-      <c r="C38" s="75"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="77"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="46"/>
     </row>
     <row r="39" spans="3:24">
-      <c r="C39" s="75"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="77"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="46"/>
     </row>
     <row r="40" spans="3:24">
-      <c r="C40" s="75"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="77"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="46"/>
     </row>
     <row r="41" spans="3:24">
-      <c r="C41" s="75"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="77"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="46"/>
     </row>
     <row r="42" spans="3:24">
-      <c r="C42" s="75"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="77"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="46"/>
     </row>
     <row r="43" spans="3:24">
-      <c r="C43" s="78"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="80"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="49"/>
     </row>
     <row r="44" spans="3:24">
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="68"/>
+    </row>
+    <row r="45" spans="3:24">
+      <c r="C45" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="54"/>
-    </row>
-    <row r="45" spans="3:24">
-      <c r="C45" s="58" t="s">
+      <c r="D45" s="62"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="53"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="52" t="s">
+      <c r="L45" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="3:24">
+      <c r="C46" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="62"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46" s="62"/>
+      <c r="L46" s="68"/>
+    </row>
+    <row r="47" spans="3:24">
+      <c r="C47" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L45" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="3:24">
-      <c r="C46" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J46" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="K46" s="53"/>
-      <c r="L46" s="54"/>
-    </row>
-    <row r="47" spans="3:24">
-      <c r="C47" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="57"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="63"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H47" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="I47" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J47" s="52"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="54"/>
+        <v>75</v>
+      </c>
+      <c r="J47" s="69"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="68"/>
     </row>
     <row r="48" spans="3:24">
-      <c r="C48" s="56"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="57"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="63"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="6"/>
@@ -4653,85 +4649,85 @@
       <c r="L48" s="28"/>
     </row>
     <row r="49" spans="3:12">
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="62"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="53"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="4" t="s">
+      <c r="L49" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12">
+      <c r="C50" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="L49" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12">
-      <c r="C50" s="58" t="s">
+      <c r="D50" s="62"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="I50" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="J50" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="J50" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="K50" s="53"/>
-      <c r="L50" s="54"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="68"/>
     </row>
     <row r="51" spans="3:12">
-      <c r="C51" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="60"/>
-      <c r="E51" s="61"/>
+      <c r="C51" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="80"/>
+      <c r="E51" s="38"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J51" s="23"/>
       <c r="K51" s="21"/>
       <c r="L51" s="30"/>
     </row>
     <row r="52" spans="3:12">
-      <c r="C52" s="63"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="48"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="82"/>
       <c r="F52" s="24"/>
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="55"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="77"/>
+      <c r="L52" s="78"/>
     </row>
     <row r="53" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C53" s="49"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="51"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="75"/>
       <c r="F53" s="31"/>
       <c r="G53" s="31"/>
       <c r="H53" s="32"/>
@@ -4742,15 +4738,54 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P36:R37"/>
-    <mergeCell ref="N36:O37"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K12"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="C6:E14"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="L7:S12"/>
+    <mergeCell ref="L17:S18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="F6:H14"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="F23:G25"/>
     <mergeCell ref="H23:I25"/>
     <mergeCell ref="C28:L43"/>
@@ -4765,54 +4800,15 @@
     <mergeCell ref="C22:E25"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="L17:S18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="F6:H14"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="L7:S12"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K12"/>
-    <mergeCell ref="C17:E19"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="C6:E14"/>
-    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P36:R37"/>
+    <mergeCell ref="N36:O37"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P32:R32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4824,7 +4820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4538CB-88B1-4F00-BE8F-59AF7E88C672}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -4835,213 +4831,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="112" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="72"/>
+      <c r="F1" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="72"/>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="115"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="103"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="115"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="104"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A4" s="116"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="105"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="111" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="122"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="69" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="115"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="122"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="116"/>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="123"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="117"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="125" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="123"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="99" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="100"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="93" t="s">
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="124"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="52" t="s">
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="124"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="101"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="52" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="124"/>
+    </row>
+    <row r="9" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A9" s="119" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="107"/>
+      <c r="D9" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="111"/>
+    </row>
+    <row r="10" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A10" s="120"/>
+      <c r="B10" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="107"/>
+      <c r="D10" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="101"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="101"/>
-    </row>
-    <row r="9" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A9" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="102" t="s">
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="111"/>
+    </row>
+    <row r="11" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A11" s="121"/>
+      <c r="B11" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="107"/>
+      <c r="D11" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="111"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="109"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="104"/>
-    </row>
-    <row r="10" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A10" s="95"/>
-      <c r="B10" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="104"/>
-    </row>
-    <row r="11" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A11" s="96"/>
-      <c r="B11" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="104"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="104"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="111"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="105" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
+      <c r="A13" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="94"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D1:E1"/>
@@ -5058,17 +5065,6 @@
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5079,75 +5075,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DE094B-4402-4F9F-9A1C-347161DFFA90}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="154" t="s">
+      <c r="A1" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="72"/>
+      <c r="F1" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="111" t="s">
+      <c r="G1" s="72"/>
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="155" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="115"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="148" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="103"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="116"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="104"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="152"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="117"/>
+      <c r="A4" s="145"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="105"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" thickBot="1">
       <c r="C5" s="11"/>
@@ -5160,60 +5156,60 @@
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="143"/>
+      <c r="A6" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="157"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="141" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="142"/>
-      <c r="C7" s="144" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="144" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="145"/>
+      <c r="A7" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="155"/>
+      <c r="C7" s="158" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="155"/>
+      <c r="E7" s="158" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="159"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="137" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="138"/>
-      <c r="C8" s="137" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="138"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="147"/>
+      <c r="A8" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="151"/>
+      <c r="C8" s="150" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="151"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="161"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A9" s="139"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="149"/>
+      <c r="A9" s="152"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="163"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -5244,89 +5240,89 @@
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A12" s="163" t="s">
+      <c r="A12" s="138" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A13" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="164"/>
-      <c r="C12" s="164"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="157" t="s">
+      <c r="B13" s="127"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="126" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="127"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="126" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="158"/>
-      <c r="C13" s="159"/>
-      <c r="D13" s="157" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="158"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="157" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="158"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="166" t="s">
+      <c r="B14" s="130"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="129" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="130"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="129" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="161"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="160" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="161"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="160" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="161"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="127" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="133" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="128"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="133"/>
       <c r="F15" s="134"/>
-      <c r="G15" s="133" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="128"/>
+      <c r="G15" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="133"/>
       <c r="I15" s="134"/>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" thickBot="1">
-      <c r="A16" s="130" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="131"/>
-      <c r="C16" s="132"/>
+      <c r="A16" s="166" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="136"/>
+      <c r="C16" s="167"/>
       <c r="D16" s="135" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="131"/>
-      <c r="F16" s="136"/>
+        <v>58</v>
+      </c>
+      <c r="E16" s="136"/>
+      <c r="F16" s="137"/>
       <c r="G16" s="135" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="131"/>
-      <c r="I16" s="136"/>
+        <v>58</v>
+      </c>
+      <c r="H16" s="136"/>
+      <c r="I16" s="137"/>
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10">
@@ -5357,12 +5353,12 @@
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="126" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
+      <c r="D19" s="156" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="19"/>
@@ -5537,6 +5533,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
@@ -5546,26 +5562,6 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:F13"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/プロジェクト型演習_成果物(詳細画面).xlsx
+++ b/プロジェクト型演習_成果物(詳細画面).xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE66127F-4543-4071-8141-49ADD934EE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2407248E-4EB4-4A5D-A90C-704EE575310F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
   </bookViews>
   <sheets>
-    <sheet name="画面設計書" sheetId="1" r:id="rId1"/>
+    <sheet name="表紙" sheetId="4" r:id="rId1"/>
     <sheet name="ユースケース記述" sheetId="2" r:id="rId2"/>
-    <sheet name="詳細クラス図" sheetId="3" r:id="rId3"/>
+    <sheet name="画面設計書" sheetId="1" r:id="rId3"/>
+    <sheet name="詳細クラス図" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
   <si>
     <t>プロジェクト演習
 タスク編集機能</t>
@@ -404,42 +405,173 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログインが済んでいる事　ログイン者がタスク一覧画面からタスク詳細画面へ遷移する際にそのタスクの担当者である事</t>
+    <t>タスク変更画面、タスク削除画面へとそれぞれ遷移する</t>
+    <rPh sb="3" eb="7">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>サクジョガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク詳細画面</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/TaskDetailServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク変更</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク削除</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>taskedit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>taskdelete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/TaskDeleteServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task-detail.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク一覧画面から遷移し、表示されたタスク詳細画面を確認しボタンを押下する</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskDeleteServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク削除画面へ遷移する</t>
+    <rPh sb="3" eb="7">
+      <t>サクジョガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧表示画面で選択したタスクを保持し、表示を行う</t>
+    <rPh sb="0" eb="6">
+      <t>イチランヒョウジガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskDeleteServlet()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task-list.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト型演習　成果ドキュメント</t>
+  </si>
+  <si>
+    <t>タスク管理システム</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ログインが済んでいる事　</t>
     <rPh sb="5" eb="6">
       <t>ス</t>
     </rPh>
     <rPh sb="10" eb="11">
       <t>コト</t>
     </rPh>
-    <rPh sb="16" eb="17">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="21" eb="25">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="47" eb="50">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>コト</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ログイン者が、ログイン一覧画面にて自分の担当タスクの横にあるボタンを押し、タスク詳細画面へと遷移する
-タスク詳細画面にて情報を確認したのち、タスク変更ボタン並びにタスク消去ボタンを押下する
+タスク詳細画面にて情報を確認したのち、ログイン者が担当者と同じ場合のみタスク変更ボタン並びにタスク消去ボタンを押下する
 タスク変更ボタンが押下されたらタスク変更画面へと遷移する
 タスク削除ボタンが押されたらタスク削除画面へと遷移する</t>
     <rPh sb="4" eb="5">
@@ -475,187 +607,61 @@
     <rPh sb="63" eb="65">
       <t>カクニン</t>
     </rPh>
-    <rPh sb="73" eb="75">
+    <rPh sb="74" eb="75">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="76" eb="79">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
       <t>ヘンコウ</t>
     </rPh>
-    <rPh sb="78" eb="79">
+    <rPh sb="94" eb="95">
       <t>ナラ</t>
     </rPh>
-    <rPh sb="84" eb="86">
+    <rPh sb="100" eb="102">
       <t>ショウキョ</t>
     </rPh>
-    <rPh sb="90" eb="92">
+    <rPh sb="106" eb="108">
       <t>オウカ</t>
     </rPh>
-    <rPh sb="98" eb="100">
+    <rPh sb="114" eb="116">
       <t>ヘンコウ</t>
     </rPh>
-    <rPh sb="104" eb="106">
+    <rPh sb="120" eb="122">
       <t>オウカ</t>
     </rPh>
-    <rPh sb="113" eb="117">
+    <rPh sb="129" eb="133">
       <t>ヘンコウガメン</t>
     </rPh>
-    <rPh sb="119" eb="121">
+    <rPh sb="135" eb="137">
       <t>センイ</t>
     </rPh>
-    <rPh sb="127" eb="129">
+    <rPh sb="143" eb="145">
       <t>サクジョ</t>
     </rPh>
-    <rPh sb="133" eb="134">
+    <rPh sb="149" eb="150">
       <t>オ</t>
     </rPh>
-    <rPh sb="141" eb="145">
+    <rPh sb="157" eb="161">
       <t>サクジョガメン</t>
     </rPh>
-    <rPh sb="147" eb="149">
+    <rPh sb="163" eb="165">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タスク変更画面、タスク削除画面へとそれぞれ遷移する</t>
-    <rPh sb="3" eb="7">
-      <t>ヘンコウガメン</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>サクジョガメン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タスク詳細画面</t>
-    <rPh sb="3" eb="5">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/TaskDetailServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タスク変更</t>
-    <rPh sb="3" eb="5">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タスク削除</t>
-    <rPh sb="3" eb="5">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>submit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>taskedit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>taskdelete</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変更</t>
+    <t>坂上</t>
     <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/TaskDeleteServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>task-detail.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タスク一覧画面から遷移し、表示されたタスク詳細画面を確認しボタンを押下する</t>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="21" eb="25">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TaskDeleteServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タスク削除画面へ遷移する</t>
-    <rPh sb="3" eb="7">
-      <t>サクジョガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一覧表示画面で選択したタスクを保持し、表示を行う</t>
-    <rPh sb="0" eb="6">
-      <t>イチランヒョウジガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TaskDeleteServlet()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>task-list.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>get</t>
+      <t>サカガミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -663,7 +669,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,6 +703,36 @@
       <name val="MS PGothic"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -743,7 +779,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="93">
+  <borders count="99">
     <border>
       <left/>
       <right/>
@@ -1337,15 +1373,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1821,6 +1848,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1828,26 +1936,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1859,25 +1961,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1889,10 +1985,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1904,32 +1997,242 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="78" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="91" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="91" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="92" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="93" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="95" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1940,398 +2243,326 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="78" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="73" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="96" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="98" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2451,20 +2682,25 @@
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2473,13 +2709,37 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>entity</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" kern="1200" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2517,19 +2777,24 @@
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2538,10 +2803,34 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>dao</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" kern="1200" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2579,19 +2868,27 @@
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2600,261 +2897,741 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>TaskCategoryUserStatusBean</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>----------------------------------------</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>-</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>  taskId: int</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>-  taskName: String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>-  categoryId:</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t> int</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>- categoryName : String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>- limitDate : date</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>- userId : String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>- userName : String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>- statusCode : String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>- statusName : String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>- memo : String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>----------------------------------------</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+ TaskCategoryUserStatusBean()</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+ getTaskId() : String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+ setTaskId(taskid : int): void</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+getTaskName(): String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+setTaskName(taskname : String): void </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+getCategoryId() : String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+setCategoryId(categoryid : int) void</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+getCategoryName() : String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+setCategoryName(categoryName : String)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t> void</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+getLimitDate():Date</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+setLimitDate(limitdate:date):void</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+getUserId():String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>setUserId(useid:String) : void</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+getUserName():String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+setUserName(userName:String) : void</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+getStatusCode():String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+setStatusCode(statuscode:String) void</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+getStatusName():String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+setStatusName(statusName:String) :void</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+getMemo():String</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+setMemo(memo : String):void</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" kern="1200" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2892,19 +3669,27 @@
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2913,53 +3698,149 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>ConnectionManager</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>--------------------------------------------------------------------</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" u="sng" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>-URL</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" u="sng" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t> : String = "jdbc:mysql://localhost:3306/task_db"</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" u="sng" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>-USER : String = "root"</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" u="sng" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>-PASWORD : String = "root"</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>---------------------------------------------------------------------</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+getConnection() : Connection</a:t>
           </a:r>
         </a:p>
@@ -3003,19 +3884,27 @@
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3024,21 +3913,57 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>TaskCategoryUserStatusDAO</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>--------------------------------------</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>--------------------------------------</a:t>
           </a:r>
         </a:p>
@@ -3061,7 +3986,19 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+select</a:t>
           </a:r>
         </a:p>
@@ -3084,15 +4021,34 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>(tcus:</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -3100,11 +4056,18 @@
             <a:t>TaskCategoryUserStatusBean</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -3131,19 +4094,36 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>:List</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -3182,10 +4162,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3238,10 +4219,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3296,10 +4278,11 @@
             <a:gd name="adj1" fmla="val 83711"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3352,10 +4335,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3408,10 +4392,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3464,10 +4449,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3520,10 +4506,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3863,956 +4850,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE3C090-186F-4CA2-AD66-6967D9C59DC5}">
-  <dimension ref="A1:X53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7D70CD-A164-44C1-B764-A5F7ABEB776C}">
+  <dimension ref="C1:P8"/>
   <sheetViews>
-    <sheetView topLeftCell="B30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50:L50"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="C5" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="C6" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" s="84"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="85"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="91"/>
-    </row>
-    <row r="9" spans="1:19" ht="18.75" customHeight="1">
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="91"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="91"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="91"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="88"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="C15" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-    </row>
-    <row r="17" spans="3:24">
-      <c r="C17" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="84"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="85"/>
-    </row>
-    <row r="18" spans="3:24">
-      <c r="C18" s="90"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="88"/>
-    </row>
-    <row r="19" spans="3:24">
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89"/>
-    </row>
-    <row r="20" spans="3:24">
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-    </row>
-    <row r="21" spans="3:24" ht="19.5" thickBot="1">
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-    </row>
-    <row r="22" spans="3:24">
-      <c r="C22" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="60"/>
-      <c r="J22" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24">
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="38"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="52"/>
-    </row>
-    <row r="24" spans="3:24">
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="53"/>
-    </row>
-    <row r="25" spans="3:24" ht="19.5" thickBot="1">
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="53"/>
-    </row>
-    <row r="26" spans="3:24">
-      <c r="C26" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="67"/>
-    </row>
-    <row r="27" spans="3:24">
-      <c r="C27" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="68"/>
-    </row>
-    <row r="28" spans="3:24">
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="43"/>
-    </row>
-    <row r="29" spans="3:24">
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
-    </row>
-    <row r="30" spans="3:24">
-      <c r="C30" s="44"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="46"/>
-    </row>
-    <row r="31" spans="3:24">
-      <c r="C31" s="44"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="46"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-    </row>
-    <row r="32" spans="3:24">
-      <c r="C32" s="44"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="46"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-    </row>
-    <row r="33" spans="3:24">
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="46"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-    </row>
-    <row r="34" spans="3:24">
-      <c r="C34" s="44"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="46"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-    </row>
-    <row r="35" spans="3:24">
-      <c r="C35" s="44"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="46"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="34"/>
-    </row>
-    <row r="36" spans="3:24">
-      <c r="C36" s="44"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="46"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-    </row>
-    <row r="37" spans="3:24">
-      <c r="C37" s="44"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="46"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-    </row>
-    <row r="38" spans="3:24">
-      <c r="C38" s="44"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="46"/>
-    </row>
-    <row r="39" spans="3:24">
-      <c r="C39" s="44"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="46"/>
-    </row>
-    <row r="40" spans="3:24">
-      <c r="C40" s="44"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="46"/>
-    </row>
-    <row r="41" spans="3:24">
-      <c r="C41" s="44"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="46"/>
-    </row>
-    <row r="42" spans="3:24">
-      <c r="C42" s="44"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="46"/>
-    </row>
-    <row r="43" spans="3:24">
-      <c r="C43" s="47"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="49"/>
-    </row>
-    <row r="44" spans="3:24">
-      <c r="C44" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="68"/>
-    </row>
-    <row r="45" spans="3:24">
-      <c r="C45" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="62"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L45" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="3:24">
-      <c r="C46" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="62"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J46" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="K46" s="62"/>
-      <c r="L46" s="68"/>
-    </row>
-    <row r="47" spans="3:24">
-      <c r="C47" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J47" s="69"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="68"/>
-    </row>
-    <row r="48" spans="3:24">
-      <c r="C48" s="64"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="28"/>
-    </row>
-    <row r="49" spans="3:12">
-      <c r="C49" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="62"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L49" s="29" t="s">
+    <row r="1" spans="3:16" ht="19.5" thickBot="1"/>
+    <row r="2" spans="3:16" ht="33" thickTop="1">
+      <c r="C2" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="29"/>
+    </row>
+    <row r="3" spans="3:16" ht="32.25">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="29"/>
+    </row>
+    <row r="4" spans="3:16" ht="32.25">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="29"/>
+    </row>
+    <row r="5" spans="3:16" ht="32.25">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="29"/>
+    </row>
+    <row r="6" spans="3:16" ht="33" thickBot="1">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="29"/>
+    </row>
+    <row r="7" spans="3:16" ht="33" thickTop="1">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="29"/>
+    </row>
+    <row r="8" spans="3:16" ht="24">
+      <c r="E8" s="34" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="50" spans="3:12">
-      <c r="C50" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="62"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J50" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="K50" s="62"/>
-      <c r="L50" s="68"/>
-    </row>
-    <row r="51" spans="3:12">
-      <c r="C51" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="80"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H51" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I51" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="J51" s="23"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="30"/>
-    </row>
-    <row r="52" spans="3:12">
-      <c r="C52" s="81"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="78"/>
-    </row>
-    <row r="53" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C53" s="73"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="15"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K12"/>
-    <mergeCell ref="C17:E19"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="C6:E14"/>
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="L7:S12"/>
-    <mergeCell ref="L17:S18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="F6:H14"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F23:G25"/>
-    <mergeCell ref="H23:I25"/>
-    <mergeCell ref="C28:L43"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="C22:E25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P36:R37"/>
-    <mergeCell ref="N36:O37"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P32:R32"/>
+  <mergeCells count="2">
+    <mergeCell ref="C2:O6"/>
+    <mergeCell ref="E8:M8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4821,220 +4984,225 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D5" sqref="D5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="4" max="4" width="40.625" customWidth="1"/>
     <col min="6" max="6" width="40.625" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="99" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="99" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="42"/>
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="115"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="37" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="103"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="194">
+        <v>45632</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="115"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="104"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="105"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="122" t="s">
+      <c r="B5" s="70"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="123"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="77"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="69" t="s">
+      <c r="B6" s="71"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="124"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="78"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="69" t="s">
+      <c r="B7" s="71"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="124"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="78"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="69" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="78"/>
+    </row>
+    <row r="9" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A9" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="61"/>
+    </row>
+    <row r="10" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A10" s="74"/>
+      <c r="B10" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="61"/>
+    </row>
+    <row r="11" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A11" s="75"/>
+      <c r="B11" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="61"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="124"/>
-    </row>
-    <row r="9" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A9" s="119" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="125" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="111"/>
-    </row>
-    <row r="10" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A10" s="120"/>
-      <c r="B10" s="106" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="111"/>
-    </row>
-    <row r="11" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A11" s="121"/>
-      <c r="B11" s="106" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="125" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="108" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="111"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="98"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -5072,464 +5240,1617 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DE094B-4402-4F9F-9A1C-347161DFFA90}">
-  <dimension ref="A1:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE3C090-186F-4CA2-AD66-6967D9C59DC5}">
+  <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="C5" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="82"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="82"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="C6" s="144" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="145"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="144" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="145"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="144" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="145"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="83"/>
+    </row>
+    <row r="7" spans="1:19" ht="18.75" customHeight="1">
+      <c r="C7" s="147"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="138" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="139"/>
+      <c r="R7" s="139"/>
+      <c r="S7" s="140"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="C8" s="147"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="153"/>
+    </row>
+    <row r="9" spans="1:19" ht="18.75" customHeight="1">
+      <c r="C9" s="147"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="153"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="C10" s="147"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="153"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="C11" s="147"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="148"/>
+      <c r="L11" s="152"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="153"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="C12" s="147"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="142"/>
+      <c r="N12" s="142"/>
+      <c r="O12" s="142"/>
+      <c r="P12" s="142"/>
+      <c r="Q12" s="142"/>
+      <c r="R12" s="142"/>
+      <c r="S12" s="143"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="C13" s="147"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="83"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="C14" s="149"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="83"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="C15" s="144" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="145"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="144" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="145"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="82"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="83"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="C16" s="149"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="82"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="96" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="83"/>
+    </row>
+    <row r="17" spans="3:24" ht="18.75" customHeight="1">
+      <c r="C17" s="144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="145"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="144" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="145"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="145"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="138" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="139"/>
+      <c r="N17" s="139"/>
+      <c r="O17" s="139"/>
+      <c r="P17" s="139"/>
+      <c r="Q17" s="139"/>
+      <c r="R17" s="139"/>
+      <c r="S17" s="140"/>
+    </row>
+    <row r="18" spans="3:24">
+      <c r="C18" s="147"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="142"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="142"/>
+      <c r="Q18" s="142"/>
+      <c r="R18" s="142"/>
+      <c r="S18" s="143"/>
+    </row>
+    <row r="19" spans="3:24">
+      <c r="C19" s="149"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="82"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="82"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="83"/>
+    </row>
+    <row r="20" spans="3:24">
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+    </row>
+    <row r="21" spans="3:24" ht="19.5" thickBot="1">
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+    </row>
+    <row r="22" spans="3:24">
+      <c r="C22" s="121" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="122"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="128" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="129"/>
+      <c r="H22" s="128" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="129"/>
+      <c r="J22" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24">
+      <c r="C23" s="124"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="102"/>
+      <c r="H23" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="102"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="118"/>
+    </row>
+    <row r="24" spans="3:24">
+      <c r="C24" s="124"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="119"/>
+    </row>
+    <row r="25" spans="3:24" ht="19.5" thickBot="1">
+      <c r="C25" s="126"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="120"/>
+    </row>
+    <row r="26" spans="3:24">
+      <c r="C26" s="132" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="133"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="130"/>
+      <c r="L26" s="131"/>
+    </row>
+    <row r="27" spans="3:24">
+      <c r="C27" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="86"/>
+    </row>
+    <row r="28" spans="3:24">
+      <c r="C28" s="107"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="109"/>
+    </row>
+    <row r="29" spans="3:24">
+      <c r="C29" s="110"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="112"/>
+    </row>
+    <row r="30" spans="3:24">
+      <c r="C30" s="110"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="112"/>
+    </row>
+    <row r="31" spans="3:24">
+      <c r="C31" s="110"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="112"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="99"/>
+      <c r="R31" s="99"/>
+      <c r="T31" s="99"/>
+      <c r="U31" s="99"/>
+      <c r="V31" s="99"/>
+      <c r="W31" s="99"/>
+      <c r="X31" s="99"/>
+    </row>
+    <row r="32" spans="3:24">
+      <c r="C32" s="110"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="112"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="99"/>
+    </row>
+    <row r="33" spans="3:24">
+      <c r="C33" s="110"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="112"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="99"/>
+      <c r="R33" s="99"/>
+    </row>
+    <row r="34" spans="3:24">
+      <c r="C34" s="110"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="112"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="99"/>
+    </row>
+    <row r="35" spans="3:24">
+      <c r="C35" s="110"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="112"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="99"/>
+      <c r="T35" s="99"/>
+      <c r="U35" s="99"/>
+      <c r="V35" s="99"/>
+      <c r="W35" s="99"/>
+      <c r="X35" s="99"/>
+    </row>
+    <row r="36" spans="3:24">
+      <c r="C36" s="110"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="112"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="100"/>
+      <c r="Q36" s="100"/>
+      <c r="R36" s="100"/>
+    </row>
+    <row r="37" spans="3:24">
+      <c r="C37" s="110"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="112"/>
+      <c r="N37" s="99"/>
+      <c r="O37" s="99"/>
+      <c r="P37" s="100"/>
+      <c r="Q37" s="100"/>
+      <c r="R37" s="100"/>
+    </row>
+    <row r="38" spans="3:24">
+      <c r="C38" s="110"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="112"/>
+    </row>
+    <row r="39" spans="3:24">
+      <c r="C39" s="110"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="112"/>
+    </row>
+    <row r="40" spans="3:24">
+      <c r="C40" s="110"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="112"/>
+    </row>
+    <row r="41" spans="3:24">
+      <c r="C41" s="110"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="111"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="111"/>
+      <c r="J41" s="111"/>
+      <c r="K41" s="111"/>
+      <c r="L41" s="112"/>
+    </row>
+    <row r="42" spans="3:24">
+      <c r="C42" s="110"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="112"/>
+    </row>
+    <row r="43" spans="3:24">
+      <c r="C43" s="113"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="115"/>
+    </row>
+    <row r="44" spans="3:24">
+      <c r="C44" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="86"/>
+    </row>
+    <row r="45" spans="3:24">
+      <c r="C45" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="85"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="3:24">
+      <c r="C46" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="85"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46" s="85"/>
+      <c r="L46" s="86"/>
+    </row>
+    <row r="47" spans="3:24">
+      <c r="C47" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="94"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J47" s="59"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="98"/>
+    </row>
+    <row r="48" spans="3:24">
+      <c r="C48" s="93"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="23"/>
+    </row>
+    <row r="49" spans="3:12">
+      <c r="C49" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="85"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="87"/>
+      <c r="K49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12">
+      <c r="C50" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="85"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="K50" s="85"/>
+      <c r="L50" s="86"/>
+    </row>
+    <row r="51" spans="3:12">
+      <c r="C51" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="89"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J51" s="18"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="25"/>
+    </row>
+    <row r="52" spans="3:12">
+      <c r="C52" s="81"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="97"/>
+    </row>
+    <row r="53" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C53" s="135"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="71">
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K12"/>
+    <mergeCell ref="C6:E14"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="L7:S12"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="L17:S18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="F6:H14"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="C22:E25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P36:R37"/>
+    <mergeCell ref="N36:O37"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="F23:G25"/>
+    <mergeCell ref="H23:I25"/>
+    <mergeCell ref="C28:L43"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DE094B-4402-4F9F-9A1C-347161DFFA90}">
+  <dimension ref="A1:J49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="147" t="s">
+      <c r="B1" s="170"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="195" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="99" t="s">
+      <c r="E1" s="196"/>
+      <c r="F1" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="196"/>
+      <c r="H1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="148" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50" t="s">
+      <c r="A2" s="172"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="176" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="194">
+        <v>45632</v>
+      </c>
+      <c r="I2" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="103"/>
+      <c r="J2" s="118"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="104"/>
+      <c r="A3" s="172"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="199"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="145"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="105"/>
+      <c r="A4" s="174"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="200"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" thickBot="1">
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
+      <c r="A5" s="201"/>
+      <c r="B5" s="202"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="203"/>
+      <c r="F5" s="203"/>
+      <c r="G5" s="203"/>
+      <c r="H5" s="203"/>
+      <c r="I5" s="203"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="203"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="181" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="158" t="s">
+      <c r="B7" s="182"/>
+      <c r="C7" s="184" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="155"/>
-      <c r="E7" s="158" t="s">
+      <c r="D7" s="182"/>
+      <c r="E7" s="184" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="159"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="203"/>
+      <c r="H7" s="203"/>
+      <c r="I7" s="203"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="151"/>
-      <c r="C8" s="150" t="s">
+      <c r="A8" s="177" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="178"/>
+      <c r="C8" s="177" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="178"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="203"/>
+      <c r="H8" s="203"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A9" s="179"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="188"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="203"/>
+      <c r="H9" s="203"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="15"/>
+      <c r="B10" s="203"/>
+      <c r="C10" s="203"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="203"/>
+      <c r="H10" s="203"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="203"/>
+      <c r="C11" s="203"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="203"/>
+      <c r="F11" s="203"/>
+      <c r="G11" s="203"/>
+      <c r="H11" s="203"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A12" s="165" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="166"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A13" s="154" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="155"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="155"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="154" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="151"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A9" s="152"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A12" s="138" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="126" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="126" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="127"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="126" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="12"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="168" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="129" t="s">
+      <c r="B14" s="158"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="130"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="129" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="12"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="157" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="158"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="164" t="s">
+      <c r="A15" s="190" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="133"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="132" t="s">
+      <c r="B15" s="204"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="133"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="132" t="s">
+      <c r="E15" s="204"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="133"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="12"/>
+      <c r="H15" s="204"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" thickBot="1">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="192" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="136"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="135" t="s">
+      <c r="B16" s="163"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="162" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="136"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="135" t="s">
+      <c r="E16" s="163"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="162" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="136"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="12"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="203"/>
+      <c r="C17" s="203"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="203"/>
+      <c r="G17" s="203"/>
+      <c r="H17" s="203"/>
+      <c r="I17" s="203"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="203"/>
+      <c r="C18" s="203"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="203"/>
+      <c r="G18" s="203"/>
+      <c r="H18" s="203"/>
+      <c r="I18" s="203"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="156" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="19"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="20"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="16"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="203"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="203"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="20"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="16"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="203"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
+      <c r="H21" s="203"/>
+      <c r="I21" s="203"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="20"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="16"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="203"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="203"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="20"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="16"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="203"/>
+      <c r="C23" s="203"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="203"/>
+      <c r="G23" s="203"/>
+      <c r="H23" s="203"/>
+      <c r="I23" s="203"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="20"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="16"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="203"/>
+      <c r="C24" s="203"/>
+      <c r="D24" s="203"/>
+      <c r="E24" s="203"/>
+      <c r="F24" s="203"/>
+      <c r="G24" s="203"/>
+      <c r="H24" s="203"/>
+      <c r="I24" s="203"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="20"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="16"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="203"/>
+      <c r="C25" s="203"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="203"/>
+      <c r="G25" s="203"/>
+      <c r="H25" s="203"/>
+      <c r="I25" s="203"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="20"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="16"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="203"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
+      <c r="H26" s="203"/>
+      <c r="I26" s="203"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="20"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="16"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="203"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="203"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="203"/>
+      <c r="G27" s="203"/>
+      <c r="H27" s="203"/>
+      <c r="I27" s="203"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="20"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="16"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="203"/>
+      <c r="C28" s="203"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="203"/>
+      <c r="G28" s="203"/>
+      <c r="H28" s="203"/>
+      <c r="I28" s="203"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="20"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="16"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="203"/>
+      <c r="C29" s="203"/>
+      <c r="D29" s="203"/>
+      <c r="E29" s="203"/>
+      <c r="F29" s="203"/>
+      <c r="G29" s="203"/>
+      <c r="H29" s="203"/>
+      <c r="I29" s="203"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="20"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="16"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="203"/>
+      <c r="C30" s="203"/>
+      <c r="D30" s="203"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="203"/>
+      <c r="G30" s="203"/>
+      <c r="H30" s="203"/>
+      <c r="I30" s="203"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="20"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="16"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="203"/>
+      <c r="C31" s="203"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="203"/>
+      <c r="G31" s="203"/>
+      <c r="H31" s="203"/>
+      <c r="I31" s="203"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="20"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="16"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="203"/>
+      <c r="C32" s="203"/>
+      <c r="D32" s="203"/>
+      <c r="E32" s="203"/>
+      <c r="F32" s="203"/>
+      <c r="G32" s="203"/>
+      <c r="H32" s="203"/>
+      <c r="I32" s="203"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="20"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="16"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="203"/>
+      <c r="C33" s="203"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="203"/>
+      <c r="G33" s="203"/>
+      <c r="H33" s="203"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="201"/>
+      <c r="B34" s="202"/>
+      <c r="C34" s="202"/>
+      <c r="D34" s="202"/>
+      <c r="E34" s="202"/>
+      <c r="F34" s="202"/>
+      <c r="G34" s="202"/>
+      <c r="H34" s="202"/>
+      <c r="I34" s="202"/>
+      <c r="J34" s="205"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="201"/>
+      <c r="B35" s="202"/>
+      <c r="C35" s="202"/>
+      <c r="D35" s="202"/>
+      <c r="E35" s="202"/>
+      <c r="F35" s="202"/>
+      <c r="G35" s="202"/>
+      <c r="H35" s="202"/>
+      <c r="I35" s="202"/>
+      <c r="J35" s="205"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="201"/>
+      <c r="B36" s="202"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="202"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="202"/>
+      <c r="G36" s="202"/>
+      <c r="H36" s="202"/>
+      <c r="I36" s="202"/>
+      <c r="J36" s="205"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="201"/>
+      <c r="B37" s="202"/>
+      <c r="C37" s="202"/>
+      <c r="D37" s="202"/>
+      <c r="E37" s="202"/>
+      <c r="F37" s="202"/>
+      <c r="G37" s="202"/>
+      <c r="H37" s="202"/>
+      <c r="I37" s="202"/>
+      <c r="J37" s="205"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="201"/>
+      <c r="B38" s="202"/>
+      <c r="C38" s="202"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="202"/>
+      <c r="F38" s="202"/>
+      <c r="G38" s="202"/>
+      <c r="H38" s="202"/>
+      <c r="I38" s="202"/>
+      <c r="J38" s="205"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="201"/>
+      <c r="B39" s="202"/>
+      <c r="C39" s="202"/>
+      <c r="D39" s="202"/>
+      <c r="E39" s="202"/>
+      <c r="F39" s="202"/>
+      <c r="G39" s="202"/>
+      <c r="H39" s="202"/>
+      <c r="I39" s="202"/>
+      <c r="J39" s="205"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="201"/>
+      <c r="B40" s="202"/>
+      <c r="C40" s="202"/>
+      <c r="D40" s="202"/>
+      <c r="E40" s="202"/>
+      <c r="F40" s="202"/>
+      <c r="G40" s="202"/>
+      <c r="H40" s="202"/>
+      <c r="I40" s="202"/>
+      <c r="J40" s="205"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="201"/>
+      <c r="B41" s="202"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="202"/>
+      <c r="E41" s="202"/>
+      <c r="F41" s="202"/>
+      <c r="G41" s="202"/>
+      <c r="H41" s="202"/>
+      <c r="I41" s="202"/>
+      <c r="J41" s="205"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="201"/>
+      <c r="B42" s="202"/>
+      <c r="C42" s="202"/>
+      <c r="D42" s="202"/>
+      <c r="E42" s="202"/>
+      <c r="F42" s="202"/>
+      <c r="G42" s="202"/>
+      <c r="H42" s="202"/>
+      <c r="I42" s="202"/>
+      <c r="J42" s="205"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="201"/>
+      <c r="B43" s="202"/>
+      <c r="C43" s="202"/>
+      <c r="D43" s="202"/>
+      <c r="E43" s="202"/>
+      <c r="F43" s="202"/>
+      <c r="G43" s="202"/>
+      <c r="H43" s="202"/>
+      <c r="I43" s="202"/>
+      <c r="J43" s="205"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="201"/>
+      <c r="B44" s="202"/>
+      <c r="C44" s="202"/>
+      <c r="D44" s="202"/>
+      <c r="E44" s="202"/>
+      <c r="F44" s="202"/>
+      <c r="G44" s="202"/>
+      <c r="H44" s="202"/>
+      <c r="I44" s="202"/>
+      <c r="J44" s="205"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="201"/>
+      <c r="B45" s="202"/>
+      <c r="C45" s="202"/>
+      <c r="D45" s="202"/>
+      <c r="E45" s="202"/>
+      <c r="F45" s="202"/>
+      <c r="G45" s="202"/>
+      <c r="H45" s="202"/>
+      <c r="I45" s="202"/>
+      <c r="J45" s="205"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="201"/>
+      <c r="B46" s="202"/>
+      <c r="C46" s="202"/>
+      <c r="D46" s="202"/>
+      <c r="E46" s="202"/>
+      <c r="F46" s="202"/>
+      <c r="G46" s="202"/>
+      <c r="H46" s="202"/>
+      <c r="I46" s="202"/>
+      <c r="J46" s="205"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="201"/>
+      <c r="B47" s="202"/>
+      <c r="C47" s="202"/>
+      <c r="D47" s="202"/>
+      <c r="E47" s="202"/>
+      <c r="F47" s="202"/>
+      <c r="G47" s="202"/>
+      <c r="H47" s="202"/>
+      <c r="I47" s="202"/>
+      <c r="J47" s="205"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="201"/>
+      <c r="B48" s="202"/>
+      <c r="C48" s="202"/>
+      <c r="D48" s="202"/>
+      <c r="E48" s="202"/>
+      <c r="F48" s="202"/>
+      <c r="G48" s="202"/>
+      <c r="H48" s="202"/>
+      <c r="I48" s="202"/>
+      <c r="J48" s="205"/>
+    </row>
+    <row r="49" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A49" s="206"/>
+      <c r="B49" s="207"/>
+      <c r="C49" s="207"/>
+      <c r="D49" s="207"/>
+      <c r="E49" s="207"/>
+      <c r="F49" s="207"/>
+      <c r="G49" s="207"/>
+      <c r="H49" s="207"/>
+      <c r="I49" s="207"/>
+      <c r="J49" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="29">

--- a/プロジェクト型演習_成果物(詳細画面).xlsx
+++ b/プロジェクト型演習_成果物(詳細画面).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2407248E-4EB4-4A5D-A90C-704EE575310F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25784F1D-9242-44AD-A6A7-C5A5F15D59DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="90">
   <si>
     <t>プロジェクト演習
 タスク編集機能</t>
@@ -310,10 +310,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>なし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>詳細クラス図</t>
   </si>
   <si>
@@ -570,8 +566,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>坂上</t>
+    <rPh sb="0" eb="2">
+      <t>サカガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ログイン者が、ログイン一覧画面にて自分の担当タスクの横にあるボタンを押し、タスク詳細画面へと遷移する
-タスク詳細画面にて情報を確認したのち、ログイン者が担当者と同じ場合のみタスク変更ボタン並びにタスク消去ボタンを押下する
+タスク詳細画面にて、タスクの情報（タスク名、期限、ステータス、担当者など）を確認する。
+ログイン者が担当者と同じ場合のみタスク変更ボタン並びにタスク消去ボタンを押下する
 タスク変更ボタンが押下されたらタスク変更画面へと遷移する
 タスク削除ボタンが押されたらタスク削除画面へと遷移する</t>
     <rPh sb="4" eb="5">
@@ -598,70 +602,63 @@
     <rPh sb="46" eb="48">
       <t>センイ</t>
     </rPh>
-    <rPh sb="54" eb="58">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="74" eb="75">
+    <rPh sb="99" eb="100">
       <t>シャ</t>
     </rPh>
-    <rPh sb="76" eb="79">
+    <rPh sb="101" eb="104">
       <t>タントウシャ</t>
     </rPh>
-    <rPh sb="80" eb="81">
+    <rPh sb="105" eb="106">
       <t>オナ</t>
     </rPh>
-    <rPh sb="82" eb="84">
+    <rPh sb="107" eb="109">
       <t>バアイ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ショウキョ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>オウカ</t>
     </rPh>
     <rPh sb="114" eb="116">
       <t>ヘンコウ</t>
     </rPh>
-    <rPh sb="120" eb="122">
+    <rPh sb="119" eb="120">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ショウキョ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
       <t>オウカ</t>
     </rPh>
-    <rPh sb="129" eb="133">
+    <rPh sb="139" eb="141">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="154" eb="158">
       <t>ヘンコウガメン</t>
     </rPh>
-    <rPh sb="135" eb="137">
+    <rPh sb="160" eb="162">
       <t>センイ</t>
     </rPh>
-    <rPh sb="143" eb="145">
+    <rPh sb="168" eb="170">
       <t>サクジョ</t>
     </rPh>
-    <rPh sb="149" eb="150">
+    <rPh sb="174" eb="175">
       <t>オ</t>
     </rPh>
-    <rPh sb="157" eb="161">
+    <rPh sb="182" eb="186">
       <t>サクジョガメン</t>
     </rPh>
-    <rPh sb="163" eb="165">
+    <rPh sb="188" eb="190">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>坂上</t>
-    <rPh sb="0" eb="2">
-      <t>サカガミ</t>
-    </rPh>
+    <t>ログイン者がタスクの担当者でない場合、タスク詳細画面には「変更ボタン」と「削除ボタン」は表示されず、ボタンが無効化される。
+タスク詳細画面にてタスク情報が未入力（必要項目が未入力）の場合、「情報が不完全です」と表示される。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインセッションがタイムアウトした場合、タスク詳細画面にはアクセスできず、ログイン画面に遷移する。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1936,7 +1933,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2030,6 +2027,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2042,6 +2057,54 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2084,7 +2147,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2093,6 +2156,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2102,27 +2168,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2147,53 +2195,134 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="73" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="96" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2201,6 +2330,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="93" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2208,24 +2358,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="95" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2234,30 +2366,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2300,152 +2417,80 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="73" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="96" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2465,104 +2510,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="98" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4853,91 +4844,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7D70CD-A164-44C1-B764-A5F7ABEB776C}">
   <dimension ref="C1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="3:16" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:16" ht="33" thickTop="1">
-      <c r="C2" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
+      <c r="C2" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="29"/>
     </row>
     <row r="3" spans="3:16" ht="32.25">
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
       <c r="P3" s="29"/>
     </row>
     <row r="4" spans="3:16" ht="32.25">
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
       <c r="P4" s="29"/>
     </row>
     <row r="5" spans="3:16" ht="32.25">
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
       <c r="P5" s="29"/>
     </row>
     <row r="6" spans="3:16" ht="33" thickBot="1">
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
       <c r="P6" s="29"/>
     </row>
     <row r="7" spans="3:16" ht="33" thickTop="1">
@@ -4957,17 +4948,17 @@
       <c r="P7" s="29"/>
     </row>
     <row r="8" spans="3:16" ht="24">
-      <c r="E8" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
+      <c r="E8" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4983,8 +4974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4538CB-88B1-4F00-BE8F-59AF7E88C672}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4995,19 +4986,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="41" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="41" t="s">
+      <c r="E1" s="64"/>
+      <c r="F1" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="42"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
@@ -5019,204 +5010,193 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="43" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="66"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="71">
+        <v>45632</v>
+      </c>
+      <c r="I2" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="75"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="76"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="77"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="194">
-        <v>45632</v>
-      </c>
-      <c r="I2" s="49" t="s">
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="53"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="53"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="53"/>
+    </row>
+    <row r="9" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A9" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56"/>
+    </row>
+    <row r="10" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A10" s="45"/>
+      <c r="B10" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="52"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="53"/>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="54"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="77"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="59" t="s">
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="56"/>
+    </row>
+    <row r="11" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="78"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="78"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="78"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="78"/>
-    </row>
-    <row r="9" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A9" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61"/>
-    </row>
-    <row r="10" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A10" s="74"/>
-      <c r="B10" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
-    </row>
-    <row r="11" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A11" s="75"/>
-      <c r="B11" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="61"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D1:E1"/>
@@ -5233,6 +5213,17 @@
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5250,374 +5241,374 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="96" t="s">
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="96" t="s">
+      <c r="G5" s="96"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="82"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="96" t="s">
+      <c r="J5" s="96"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="97"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="C6" s="144" t="s">
+      <c r="C6" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="144" t="s">
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="145"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="144" t="s">
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="88"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="96" t="s">
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="97"/>
+    </row>
+    <row r="7" spans="1:19" ht="18.75" customHeight="1">
+      <c r="C7" s="98"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="102"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="C8" s="98"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="104"/>
+    </row>
+    <row r="9" spans="1:19" ht="18.75" customHeight="1">
+      <c r="C9" s="98"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="104"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="C10" s="98"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="104"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="C11" s="98"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="104"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="C12" s="98"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="107"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="C13" s="98"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="97"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="97"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="C15" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="88"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="96"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="97"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="C16" s="90"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="83"/>
-    </row>
-    <row r="7" spans="1:19" ht="18.75" customHeight="1">
-      <c r="C7" s="147"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="138" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="139"/>
-      <c r="S7" s="140"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="C8" s="147"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="152"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="153"/>
-    </row>
-    <row r="9" spans="1:19" ht="18.75" customHeight="1">
-      <c r="C9" s="147"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="153"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="C10" s="147"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="153"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="C11" s="147"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="153"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="C12" s="147"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="142"/>
-      <c r="N12" s="142"/>
-      <c r="O12" s="142"/>
-      <c r="P12" s="142"/>
-      <c r="Q12" s="142"/>
-      <c r="R12" s="142"/>
-      <c r="S12" s="143"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="C13" s="147"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="83"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="C14" s="149"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="83"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="C15" s="144" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="145"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="144" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="145"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="82"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="83"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="C16" s="149"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="96" t="s">
+      <c r="J16" s="96"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="82"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="96" t="s">
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="97"/>
+    </row>
+    <row r="17" spans="3:24" ht="18.75" customHeight="1">
+      <c r="C17" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="88"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="88"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="83"/>
-    </row>
-    <row r="17" spans="3:24" ht="18.75" customHeight="1">
-      <c r="C17" s="144" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="145"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="145"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="144" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="145"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="138" t="s">
-        <v>80</v>
-      </c>
-      <c r="M17" s="139"/>
-      <c r="N17" s="139"/>
-      <c r="O17" s="139"/>
-      <c r="P17" s="139"/>
-      <c r="Q17" s="139"/>
-      <c r="R17" s="139"/>
-      <c r="S17" s="140"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="101"/>
+      <c r="R17" s="101"/>
+      <c r="S17" s="102"/>
     </row>
     <row r="18" spans="3:24">
-      <c r="C18" s="147"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="142"/>
-      <c r="O18" s="142"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="142"/>
-      <c r="R18" s="142"/>
-      <c r="S18" s="143"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="106"/>
+      <c r="S18" s="107"/>
     </row>
     <row r="19" spans="3:24">
-      <c r="C19" s="149"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="96" t="s">
+      <c r="C19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="96" t="s">
+      <c r="G19" s="96"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="82"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="96" t="s">
+      <c r="J19" s="96"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="83"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="97"/>
     </row>
     <row r="20" spans="3:24">
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
     </row>
     <row r="21" spans="3:24" ht="19.5" thickBot="1">
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="121" t="s">
+      <c r="C22" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="122"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="128" t="s">
+      <c r="D22" s="112"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="129"/>
-      <c r="H22" s="128" t="s">
+      <c r="G22" s="121"/>
+      <c r="H22" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="129"/>
+      <c r="I22" s="121"/>
       <c r="J22" s="20" t="s">
         <v>21</v>
       </c>
@@ -5629,339 +5620,339 @@
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="124"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="43" t="s">
+      <c r="C23" s="114"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="102"/>
-      <c r="H23" s="43" t="s">
+      <c r="G23" s="144"/>
+      <c r="H23" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="102"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="118"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="158"/>
     </row>
     <row r="24" spans="3:24">
-      <c r="C24" s="124"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="119"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="156"/>
+      <c r="L24" s="159"/>
     </row>
     <row r="25" spans="3:24" ht="19.5" thickBot="1">
-      <c r="C25" s="126"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="120"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="157"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="160"/>
     </row>
     <row r="26" spans="3:24">
-      <c r="C26" s="132" t="s">
+      <c r="C26" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="76" t="s">
+      <c r="D26" s="134"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="130"/>
-      <c r="L26" s="131"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="129"/>
     </row>
     <row r="27" spans="3:24">
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="86"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="130"/>
     </row>
     <row r="28" spans="3:24">
-      <c r="C28" s="107"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="109"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="149"/>
     </row>
     <row r="29" spans="3:24">
-      <c r="C29" s="110"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="112"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="152"/>
     </row>
     <row r="30" spans="3:24">
-      <c r="C30" s="110"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="112"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="152"/>
     </row>
     <row r="31" spans="3:24">
-      <c r="C31" s="110"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="112"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="99"/>
-      <c r="T31" s="99"/>
-      <c r="U31" s="99"/>
-      <c r="V31" s="99"/>
-      <c r="W31" s="99"/>
-      <c r="X31" s="99"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="151"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="152"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="94"/>
+      <c r="T31" s="94"/>
+      <c r="U31" s="94"/>
+      <c r="V31" s="94"/>
+      <c r="W31" s="94"/>
+      <c r="X31" s="94"/>
     </row>
     <row r="32" spans="3:24">
-      <c r="C32" s="110"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="112"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="99"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="152"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="94"/>
     </row>
     <row r="33" spans="3:24">
-      <c r="C33" s="110"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="112"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="99"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="152"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="136"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
     </row>
     <row r="34" spans="3:24">
-      <c r="C34" s="110"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="112"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="99"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="152"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="94"/>
     </row>
     <row r="35" spans="3:24">
-      <c r="C35" s="110"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="112"/>
-      <c r="N35" s="99"/>
-      <c r="O35" s="99"/>
-      <c r="P35" s="99"/>
-      <c r="Q35" s="99"/>
-      <c r="R35" s="99"/>
-      <c r="T35" s="99"/>
-      <c r="U35" s="99"/>
-      <c r="V35" s="99"/>
-      <c r="W35" s="99"/>
-      <c r="X35" s="99"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="151"/>
+      <c r="K35" s="151"/>
+      <c r="L35" s="152"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
     </row>
     <row r="36" spans="3:24">
-      <c r="C36" s="110"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="112"/>
-      <c r="N36" s="99"/>
-      <c r="O36" s="99"/>
-      <c r="P36" s="100"/>
-      <c r="Q36" s="100"/>
-      <c r="R36" s="100"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="151"/>
+      <c r="K36" s="151"/>
+      <c r="L36" s="152"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="93"/>
     </row>
     <row r="37" spans="3:24">
-      <c r="C37" s="110"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="112"/>
-      <c r="N37" s="99"/>
-      <c r="O37" s="99"/>
-      <c r="P37" s="100"/>
-      <c r="Q37" s="100"/>
-      <c r="R37" s="100"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="151"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="152"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="94"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="93"/>
     </row>
     <row r="38" spans="3:24">
-      <c r="C38" s="110"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="111"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="112"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="151"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="151"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="152"/>
     </row>
     <row r="39" spans="3:24">
-      <c r="C39" s="110"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="111"/>
-      <c r="L39" s="112"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="151"/>
+      <c r="L39" s="152"/>
     </row>
     <row r="40" spans="3:24">
-      <c r="C40" s="110"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="112"/>
+      <c r="C40" s="150"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="151"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="151"/>
+      <c r="K40" s="151"/>
+      <c r="L40" s="152"/>
     </row>
     <row r="41" spans="3:24">
-      <c r="C41" s="110"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="111"/>
-      <c r="I41" s="111"/>
-      <c r="J41" s="111"/>
-      <c r="K41" s="111"/>
-      <c r="L41" s="112"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="151"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="151"/>
+      <c r="K41" s="151"/>
+      <c r="L41" s="152"/>
     </row>
     <row r="42" spans="3:24">
-      <c r="C42" s="110"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="111"/>
-      <c r="L42" s="112"/>
+      <c r="C42" s="150"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="151"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="151"/>
+      <c r="K42" s="151"/>
+      <c r="L42" s="152"/>
     </row>
     <row r="43" spans="3:24">
-      <c r="C43" s="113"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="115"/>
+      <c r="C43" s="153"/>
+      <c r="D43" s="154"/>
+      <c r="E43" s="154"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="154"/>
+      <c r="J43" s="154"/>
+      <c r="K43" s="154"/>
+      <c r="L43" s="155"/>
     </row>
     <row r="44" spans="3:24">
-      <c r="C44" s="91" t="s">
+      <c r="C44" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="86"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="123"/>
+      <c r="F44" s="123"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="123"/>
+      <c r="J44" s="123"/>
+      <c r="K44" s="123"/>
+      <c r="L44" s="130"/>
     </row>
     <row r="45" spans="3:24">
-      <c r="C45" s="91" t="s">
+      <c r="C45" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="85"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="87"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="131"/>
       <c r="K45" s="2" t="s">
         <v>28</v>
       </c>
@@ -5970,11 +5961,11 @@
       </c>
     </row>
     <row r="46" spans="3:24">
-      <c r="C46" s="91" t="s">
+      <c r="C46" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="85"/>
-      <c r="E46" s="92"/>
+      <c r="D46" s="123"/>
+      <c r="E46" s="124"/>
       <c r="F46" s="2" t="s">
         <v>30</v>
       </c>
@@ -5987,36 +5978,36 @@
       <c r="I46" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J46" s="84" t="s">
+      <c r="J46" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="K46" s="85"/>
-      <c r="L46" s="86"/>
+      <c r="K46" s="123"/>
+      <c r="L46" s="130"/>
     </row>
     <row r="47" spans="3:24">
-      <c r="C47" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="94"/>
-      <c r="E47" s="95"/>
+      <c r="C47" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="126"/>
+      <c r="E47" s="127"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="I47" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J47" s="59"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="98"/>
+        <v>72</v>
+      </c>
+      <c r="J47" s="52"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="143"/>
     </row>
     <row r="48" spans="3:24">
-      <c r="C48" s="93"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="95"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="127"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="4"/>
@@ -6026,31 +6017,31 @@
       <c r="L48" s="23"/>
     </row>
     <row r="49" spans="3:12">
-      <c r="C49" s="91" t="s">
+      <c r="C49" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="85"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="87"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="131"/>
       <c r="K49" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L49" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="3:12">
-      <c r="C50" s="91" t="s">
+      <c r="C50" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="85"/>
-      <c r="E50" s="92"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="124"/>
       <c r="F50" s="2" t="s">
         <v>30</v>
       </c>
@@ -6063,48 +6054,48 @@
       <c r="I50" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J50" s="84" t="s">
+      <c r="J50" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="K50" s="85"/>
-      <c r="L50" s="86"/>
+      <c r="K50" s="123"/>
+      <c r="L50" s="130"/>
     </row>
     <row r="51" spans="3:12">
-      <c r="C51" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="89"/>
-      <c r="E51" s="90"/>
+      <c r="C51" s="139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="140"/>
+      <c r="E51" s="141"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J51" s="18"/>
       <c r="K51" s="16"/>
       <c r="L51" s="25"/>
     </row>
     <row r="52" spans="3:12">
-      <c r="C52" s="81"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="83"/>
+      <c r="C52" s="138"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="97"/>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
-      <c r="J52" s="96"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="97"/>
+      <c r="J52" s="95"/>
+      <c r="K52" s="96"/>
+      <c r="L52" s="142"/>
     </row>
     <row r="53" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C53" s="135"/>
-      <c r="D53" s="136"/>
-      <c r="E53" s="137"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="110"/>
       <c r="F53" s="26"/>
       <c r="G53" s="26"/>
       <c r="H53" s="27"/>
@@ -6115,19 +6106,48 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K12"/>
-    <mergeCell ref="C6:E14"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="L7:S12"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="F23:G25"/>
+    <mergeCell ref="H23:I25"/>
+    <mergeCell ref="C28:L43"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P36:R37"/>
+    <mergeCell ref="N36:O37"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="C22:E25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="L17:S18"/>
     <mergeCell ref="F19:H19"/>
@@ -6144,48 +6164,19 @@
     <mergeCell ref="C17:E19"/>
     <mergeCell ref="F17:H18"/>
     <mergeCell ref="I17:K18"/>
-    <mergeCell ref="C22:E25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P36:R37"/>
-    <mergeCell ref="N36:O37"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="F23:G25"/>
-    <mergeCell ref="H23:I25"/>
-    <mergeCell ref="C28:L43"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="L7:S12"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K12"/>
+    <mergeCell ref="C6:E14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6207,19 +6198,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="121" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="195" t="s">
+      <c r="A1" s="111" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="186"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="196"/>
-      <c r="F1" s="128" t="s">
+      <c r="E1" s="193"/>
+      <c r="F1" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="196"/>
+      <c r="G1" s="193"/>
       <c r="H1" s="20" t="s">
         <v>21</v>
       </c>
@@ -6231,649 +6222,508 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="172"/>
-      <c r="B2" s="197"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="176" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="194">
+      <c r="A2" s="188"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="194" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="66"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="71">
         <v>45632</v>
       </c>
-      <c r="I2" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="118"/>
+      <c r="I2" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="158"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="172"/>
-      <c r="B3" s="197"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="199"/>
+      <c r="A3" s="188"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="184"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="174"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="200"/>
+      <c r="A4" s="190"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="185"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A5" s="201"/>
-      <c r="B5" s="202"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="203"/>
-      <c r="F5" s="203"/>
-      <c r="G5" s="203"/>
-      <c r="H5" s="203"/>
-      <c r="I5" s="203"/>
+      <c r="A5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="203"/>
-      <c r="I6" s="203"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="181" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="182"/>
-      <c r="C7" s="184" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="182"/>
-      <c r="E7" s="184" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="185"/>
-      <c r="G7" s="203"/>
-      <c r="H7" s="203"/>
-      <c r="I7" s="203"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="178" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="176"/>
+      <c r="E7" s="178" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="179"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="177" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="178"/>
-      <c r="C8" s="177" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="178"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="203"/>
-      <c r="H8" s="203"/>
-      <c r="I8" s="203"/>
+      <c r="A8" s="171" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="172"/>
+      <c r="C8" s="171" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="172"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A9" s="179"/>
-      <c r="B9" s="180"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="188"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="203"/>
-      <c r="H9" s="203"/>
-      <c r="I9" s="203"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="15"/>
-      <c r="B10" s="203"/>
-      <c r="C10" s="203"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="203"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="19.5" thickBot="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="203"/>
-      <c r="C11" s="203"/>
-      <c r="D11" s="203"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="203"/>
-      <c r="G11" s="203"/>
-      <c r="H11" s="203"/>
-      <c r="I11" s="203"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A12" s="165" t="s">
+      <c r="A12" s="202" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="203"/>
+      <c r="C12" s="203"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="203"/>
+      <c r="G12" s="203"/>
+      <c r="H12" s="203"/>
+      <c r="I12" s="204"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A13" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="166"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="154" t="s">
+      <c r="B13" s="197"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="196" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="197"/>
+      <c r="F13" s="198"/>
+      <c r="G13" s="196" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="197"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="155"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="154" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="155"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="154" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="155"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="168" t="s">
+      <c r="B14" s="200"/>
+      <c r="C14" s="206"/>
+      <c r="D14" s="199" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="200"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="199" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="200"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="161" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="158"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="157" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="158"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="157" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="158"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="190" t="s">
+      <c r="B15" s="162"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="167" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="162"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="167" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="162"/>
+      <c r="I15" s="168"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" ht="21" customHeight="1" thickBot="1">
+      <c r="A16" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="204"/>
-      <c r="C15" s="191"/>
-      <c r="D15" s="160" t="s">
+      <c r="B16" s="165"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="204"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="160" t="s">
+      <c r="E16" s="165"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="204"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" ht="21" customHeight="1" thickBot="1">
-      <c r="A16" s="192" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="163"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="162" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="163"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="162" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="163"/>
-      <c r="I16" s="164"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="170"/>
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="15"/>
-      <c r="B17" s="203"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="203"/>
-      <c r="H17" s="203"/>
-      <c r="I17" s="203"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" thickBot="1">
       <c r="A18" s="15"/>
-      <c r="B18" s="203"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
-      <c r="H18" s="203"/>
-      <c r="I18" s="203"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="122" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
+      <c r="D19" s="112" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="15"/>
-      <c r="B20" s="203"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="203"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="203"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="15"/>
-      <c r="B21" s="203"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="203"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="15"/>
-      <c r="B22" s="203"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="203"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="203"/>
-      <c r="H22" s="203"/>
-      <c r="I22" s="203"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="15"/>
-      <c r="B23" s="203"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="203"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="203"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="15"/>
-      <c r="B24" s="203"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="203"/>
-      <c r="E24" s="203"/>
-      <c r="F24" s="203"/>
-      <c r="G24" s="203"/>
-      <c r="H24" s="203"/>
-      <c r="I24" s="203"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="15"/>
-      <c r="B25" s="203"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="203"/>
-      <c r="E25" s="203"/>
-      <c r="F25" s="203"/>
-      <c r="G25" s="203"/>
-      <c r="H25" s="203"/>
-      <c r="I25" s="203"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="15"/>
-      <c r="B26" s="203"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203"/>
-      <c r="H26" s="203"/>
-      <c r="I26" s="203"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="15"/>
-      <c r="B27" s="203"/>
-      <c r="C27" s="203"/>
-      <c r="D27" s="203"/>
-      <c r="E27" s="203"/>
-      <c r="F27" s="203"/>
-      <c r="G27" s="203"/>
-      <c r="H27" s="203"/>
-      <c r="I27" s="203"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="15"/>
-      <c r="B28" s="203"/>
-      <c r="C28" s="203"/>
-      <c r="D28" s="203"/>
-      <c r="E28" s="203"/>
-      <c r="F28" s="203"/>
-      <c r="G28" s="203"/>
-      <c r="H28" s="203"/>
-      <c r="I28" s="203"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="15"/>
-      <c r="B29" s="203"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="203"/>
-      <c r="E29" s="203"/>
-      <c r="F29" s="203"/>
-      <c r="G29" s="203"/>
-      <c r="H29" s="203"/>
-      <c r="I29" s="203"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="15"/>
-      <c r="B30" s="203"/>
-      <c r="C30" s="203"/>
-      <c r="D30" s="203"/>
-      <c r="E30" s="203"/>
-      <c r="F30" s="203"/>
-      <c r="G30" s="203"/>
-      <c r="H30" s="203"/>
-      <c r="I30" s="203"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="15"/>
-      <c r="B31" s="203"/>
-      <c r="C31" s="203"/>
-      <c r="D31" s="203"/>
-      <c r="E31" s="203"/>
-      <c r="F31" s="203"/>
-      <c r="G31" s="203"/>
-      <c r="H31" s="203"/>
-      <c r="I31" s="203"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="15"/>
-      <c r="B32" s="203"/>
-      <c r="C32" s="203"/>
-      <c r="D32" s="203"/>
-      <c r="E32" s="203"/>
-      <c r="F32" s="203"/>
-      <c r="G32" s="203"/>
-      <c r="H32" s="203"/>
-      <c r="I32" s="203"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="15"/>
-      <c r="B33" s="203"/>
-      <c r="C33" s="203"/>
-      <c r="D33" s="203"/>
-      <c r="E33" s="203"/>
-      <c r="F33" s="203"/>
-      <c r="G33" s="203"/>
-      <c r="H33" s="203"/>
-      <c r="I33" s="203"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="201"/>
-      <c r="B34" s="202"/>
-      <c r="C34" s="202"/>
-      <c r="D34" s="202"/>
-      <c r="E34" s="202"/>
-      <c r="F34" s="202"/>
-      <c r="G34" s="202"/>
-      <c r="H34" s="202"/>
-      <c r="I34" s="202"/>
-      <c r="J34" s="205"/>
+      <c r="A34" s="31"/>
+      <c r="J34" s="33"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="201"/>
-      <c r="B35" s="202"/>
-      <c r="C35" s="202"/>
-      <c r="D35" s="202"/>
-      <c r="E35" s="202"/>
-      <c r="F35" s="202"/>
-      <c r="G35" s="202"/>
-      <c r="H35" s="202"/>
-      <c r="I35" s="202"/>
-      <c r="J35" s="205"/>
+      <c r="A35" s="31"/>
+      <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="201"/>
-      <c r="B36" s="202"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="202"/>
-      <c r="E36" s="202"/>
-      <c r="F36" s="202"/>
-      <c r="G36" s="202"/>
-      <c r="H36" s="202"/>
-      <c r="I36" s="202"/>
-      <c r="J36" s="205"/>
+      <c r="A36" s="31"/>
+      <c r="J36" s="33"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="201"/>
-      <c r="B37" s="202"/>
-      <c r="C37" s="202"/>
-      <c r="D37" s="202"/>
-      <c r="E37" s="202"/>
-      <c r="F37" s="202"/>
-      <c r="G37" s="202"/>
-      <c r="H37" s="202"/>
-      <c r="I37" s="202"/>
-      <c r="J37" s="205"/>
+      <c r="A37" s="31"/>
+      <c r="J37" s="33"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="201"/>
-      <c r="B38" s="202"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="202"/>
-      <c r="E38" s="202"/>
-      <c r="F38" s="202"/>
-      <c r="G38" s="202"/>
-      <c r="H38" s="202"/>
-      <c r="I38" s="202"/>
-      <c r="J38" s="205"/>
+      <c r="A38" s="31"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="201"/>
-      <c r="B39" s="202"/>
-      <c r="C39" s="202"/>
-      <c r="D39" s="202"/>
-      <c r="E39" s="202"/>
-      <c r="F39" s="202"/>
-      <c r="G39" s="202"/>
-      <c r="H39" s="202"/>
-      <c r="I39" s="202"/>
-      <c r="J39" s="205"/>
+      <c r="A39" s="31"/>
+      <c r="J39" s="33"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="201"/>
-      <c r="B40" s="202"/>
-      <c r="C40" s="202"/>
-      <c r="D40" s="202"/>
-      <c r="E40" s="202"/>
-      <c r="F40" s="202"/>
-      <c r="G40" s="202"/>
-      <c r="H40" s="202"/>
-      <c r="I40" s="202"/>
-      <c r="J40" s="205"/>
+      <c r="A40" s="31"/>
+      <c r="J40" s="33"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="201"/>
-      <c r="B41" s="202"/>
-      <c r="C41" s="202"/>
-      <c r="D41" s="202"/>
-      <c r="E41" s="202"/>
-      <c r="F41" s="202"/>
-      <c r="G41" s="202"/>
-      <c r="H41" s="202"/>
-      <c r="I41" s="202"/>
-      <c r="J41" s="205"/>
+      <c r="A41" s="31"/>
+      <c r="J41" s="33"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="201"/>
-      <c r="B42" s="202"/>
-      <c r="C42" s="202"/>
-      <c r="D42" s="202"/>
-      <c r="E42" s="202"/>
-      <c r="F42" s="202"/>
-      <c r="G42" s="202"/>
-      <c r="H42" s="202"/>
-      <c r="I42" s="202"/>
-      <c r="J42" s="205"/>
+      <c r="A42" s="31"/>
+      <c r="J42" s="33"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="201"/>
-      <c r="B43" s="202"/>
-      <c r="C43" s="202"/>
-      <c r="D43" s="202"/>
-      <c r="E43" s="202"/>
-      <c r="F43" s="202"/>
-      <c r="G43" s="202"/>
-      <c r="H43" s="202"/>
-      <c r="I43" s="202"/>
-      <c r="J43" s="205"/>
+      <c r="A43" s="31"/>
+      <c r="J43" s="33"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="201"/>
-      <c r="B44" s="202"/>
-      <c r="C44" s="202"/>
-      <c r="D44" s="202"/>
-      <c r="E44" s="202"/>
-      <c r="F44" s="202"/>
-      <c r="G44" s="202"/>
-      <c r="H44" s="202"/>
-      <c r="I44" s="202"/>
-      <c r="J44" s="205"/>
+      <c r="A44" s="31"/>
+      <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="201"/>
-      <c r="B45" s="202"/>
-      <c r="C45" s="202"/>
-      <c r="D45" s="202"/>
-      <c r="E45" s="202"/>
-      <c r="F45" s="202"/>
-      <c r="G45" s="202"/>
-      <c r="H45" s="202"/>
-      <c r="I45" s="202"/>
-      <c r="J45" s="205"/>
+      <c r="A45" s="31"/>
+      <c r="J45" s="33"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="201"/>
-      <c r="B46" s="202"/>
-      <c r="C46" s="202"/>
-      <c r="D46" s="202"/>
-      <c r="E46" s="202"/>
-      <c r="F46" s="202"/>
-      <c r="G46" s="202"/>
-      <c r="H46" s="202"/>
-      <c r="I46" s="202"/>
-      <c r="J46" s="205"/>
+      <c r="A46" s="31"/>
+      <c r="J46" s="33"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="201"/>
-      <c r="B47" s="202"/>
-      <c r="C47" s="202"/>
-      <c r="D47" s="202"/>
-      <c r="E47" s="202"/>
-      <c r="F47" s="202"/>
-      <c r="G47" s="202"/>
-      <c r="H47" s="202"/>
-      <c r="I47" s="202"/>
-      <c r="J47" s="205"/>
+      <c r="A47" s="31"/>
+      <c r="J47" s="33"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="201"/>
-      <c r="B48" s="202"/>
-      <c r="C48" s="202"/>
-      <c r="D48" s="202"/>
-      <c r="E48" s="202"/>
-      <c r="F48" s="202"/>
-      <c r="G48" s="202"/>
-      <c r="H48" s="202"/>
-      <c r="I48" s="202"/>
-      <c r="J48" s="205"/>
+      <c r="A48" s="31"/>
+      <c r="J48" s="33"/>
     </row>
     <row r="49" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A49" s="206"/>
-      <c r="B49" s="207"/>
-      <c r="C49" s="207"/>
-      <c r="D49" s="207"/>
-      <c r="E49" s="207"/>
-      <c r="F49" s="207"/>
-      <c r="G49" s="207"/>
-      <c r="H49" s="207"/>
-      <c r="I49" s="207"/>
-      <c r="J49" s="208"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
@@ -6883,6 +6733,26 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
